--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23313"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="367" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08EE6DD3-BC0D-4C51-AA4A-DAEF342132B9}"/>
+  <xr:revisionPtr revIDLastSave="478" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D70E905-230B-4F8B-8737-E95BB3B1A10B}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,8 +12,8 @@
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
     <sheet name="テンプレート" sheetId="2" r:id="rId3"/>
     <sheet name="users" sheetId="4" r:id="rId4"/>
-    <sheet name="users_chat_rooms" sheetId="5" r:id="rId5"/>
-    <sheet name="chat_rooms" sheetId="6" r:id="rId6"/>
+    <sheet name="chat_rooms" sheetId="6" r:id="rId5"/>
+    <sheet name="users_chat_rooms" sheetId="5" r:id="rId6"/>
     <sheet name="posts" sheetId="8" r:id="rId7"/>
     <sheet name="tasks" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="144">
   <si>
     <t>改定履歴</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>yuna koizumi</t>
+  </si>
+  <si>
+    <t>設計書修正</t>
   </si>
   <si>
     <t>table_names</t>
@@ -656,7 +659,7 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>電話番号</t>
+    <t>携帯電話番号</t>
   </si>
   <si>
     <t>tel</t>
@@ -677,13 +680,22 @@
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>CURRENT</t>
+    <t>CURRENT＿TIMESTAMP</t>
+  </si>
+  <si>
+    <t>ON_UPDATE</t>
+  </si>
+  <si>
+    <t>作成と同時に更新</t>
   </si>
   <si>
     <t>更新日時</t>
   </si>
   <si>
     <t>updated_at</t>
+  </si>
+  <si>
+    <t>情報変更と同時に更新</t>
   </si>
   <si>
     <t>削除フラグ</t>
@@ -695,19 +707,10 @@
     <t>1.削除済み</t>
   </si>
   <si>
-    <t>users_chat_rooms</t>
+    <t>chat_rooms</t>
   </si>
   <si>
-    <t>利用者テーブルとチャットルームテーブルの中間テーブル</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>CPK</t>
-  </si>
-  <si>
-    <t>複合主キー</t>
+    <t>チャットルーム、ダイレクトチャットルームの情報を保持するテーブル</t>
   </si>
   <si>
     <r>
@@ -722,21 +725,6 @@
       </rPr>
       <t>ID</t>
     </r>
-  </si>
-  <si>
-    <t>chat_room_id</t>
-  </si>
-  <si>
-    <t>参加日時</t>
-  </si>
-  <si>
-    <t>joioned_at</t>
-  </si>
-  <si>
-    <t>chat_rooms</t>
-  </si>
-  <si>
-    <t>チャットルーム、ダイレクトチャットルームの情報を保持するテーブル</t>
   </si>
   <si>
     <t>チャットルーム名</t>
@@ -768,7 +756,7 @@
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>direct_chat_flag</t>
+    <t>is_direct_chat</t>
   </si>
   <si>
     <r>
@@ -794,10 +782,10 @@
     </r>
   </si>
   <si>
-    <t>ファイル送信許可フラグ</t>
+    <t>ファイル添付許可フラグ</t>
   </si>
   <si>
-    <t>file_send_flag</t>
+    <t>is_attachble</t>
   </si>
   <si>
     <r>
@@ -812,6 +800,12 @@
       </rPr>
       <t>送信不可</t>
     </r>
+  </si>
+  <si>
+    <t>CURRENT_STAMP</t>
+  </si>
+  <si>
+    <t>ON UPDATE</t>
   </si>
   <si>
     <r>
@@ -834,6 +828,9 @@
     <t>FK</t>
   </si>
   <si>
+    <t>変更と同時に更新</t>
+  </si>
+  <si>
     <r>
       <t>更新者</t>
     </r>
@@ -849,6 +846,33 @@
   </si>
   <si>
     <t>updater_id</t>
+  </si>
+  <si>
+    <t>users_chat_rooms</t>
+  </si>
+  <si>
+    <t>利用者テーブルとチャットルームテーブルの中間テーブル</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>CPK</t>
+  </si>
+  <si>
+    <t>複合主キー</t>
+  </si>
+  <si>
+    <t>chat_room_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
+  </si>
+  <si>
+    <t>joined_at</t>
+  </si>
+  <si>
+    <t>ユーザー参加と同時に更新</t>
   </si>
   <si>
     <t>posts</t>
@@ -880,10 +904,22 @@
     <t>post_content</t>
   </si>
   <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>投稿日時</t>
   </si>
   <si>
     <t>posted_at</t>
+  </si>
+  <si>
+    <t>投稿と同時に更新</t>
   </si>
   <si>
     <r>
@@ -955,17 +991,20 @@
     <t>DATETIME</t>
   </si>
   <si>
-    <t>完了日時</t>
+    <t>完了フラグ</t>
   </si>
   <si>
-    <t>done_at</t>
+    <t>is_completed</t>
+  </si>
+  <si>
+    <t>1.完了済み</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1070,6 +1109,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1215,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1294,6 +1339,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1515,7 +1563,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1626,7 +1674,7 @@
     </row>
     <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="8">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
@@ -1659,9 +1707,13 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="8"/>
+      <c r="A5" s="46">
+        <v>44092</v>
+      </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -30419,7 +30471,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -30435,10 +30487,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -30454,10 +30506,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -30474,34 +30526,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
@@ -30513,26 +30565,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="38"/>
@@ -30545,20 +30597,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30573,13 +30625,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30599,13 +30651,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30614,12 +30666,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -30631,18 +30683,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -30657,20 +30709,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -30685,18 +30737,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -30711,20 +30763,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -30752,7 +30804,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -30782,7 +30834,7 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -30797,7 +30849,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -30813,34 +30865,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31052,8 +31104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10439F6F-30AE-408F-8B63-C3BAE7895DA4}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31062,9 +31114,9 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1">
@@ -31072,7 +31124,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -31086,10 +31138,10 @@
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -31103,7 +31155,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -31119,63 +31171,63 @@
     <row r="4" spans="1:11" s="22" customFormat="1">
       <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="38"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31186,20 +31238,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" s="25">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31212,20 +31264,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="25">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31238,20 +31290,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="F8" s="25">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -31264,19 +31316,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" s="25">
         <v>1000</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -31290,19 +31342,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="25">
         <v>13</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
@@ -31316,19 +31368,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="25">
         <v>13</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
@@ -31342,24 +31394,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
       <c r="A13" s="38"/>
@@ -31368,24 +31424,28 @@
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="H13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1">
       <c r="A14" s="38"/>
@@ -31394,13 +31454,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -31409,47 +31469,53 @@
         <v>0</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="22" customFormat="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="38"/>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" s="22" customFormat="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="38"/>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" s="22" customFormat="1" ht="15.75" customHeight="1"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
@@ -31461,22 +31527,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AE6268-9AAA-4519-84ED-837DC6640903}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E45C2DA-76DD-48F4-A7FC-6FC10F1B7AE7}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1">
@@ -31484,7 +31551,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -31498,10 +31565,10 @@
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -31515,7 +31582,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -31531,65 +31598,65 @@
     <row r="4" spans="1:11" s="22" customFormat="1">
       <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="38"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="16">
+        <v>55</v>
+      </c>
+      <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="20" t="s">
-        <v>86</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
       <c r="A6" s="38"/>
@@ -31598,28 +31665,24 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="16">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="F6" s="25">
+        <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>85</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
       <c r="A7" s="38"/>
@@ -31627,22 +31690,22 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>89</v>
+      <c r="C7" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1000</v>
+      </c>
       <c r="G7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>55</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -31653,15 +31716,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="25" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
       <c r="A9" s="38"/>
@@ -31669,15 +31746,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
+      <c r="C9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="25" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
       <c r="A10" s="38"/>
@@ -31685,15 +31776,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="25" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
       <c r="A11" s="38"/>
@@ -31701,15 +31806,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
+      <c r="C11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
       <c r="A12" s="38"/>
@@ -31717,13 +31836,25 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
+      <c r="C12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="25">
+        <v>11</v>
+      </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
@@ -31733,15 +31864,29 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16"/>
+      <c r="C13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1">
       <c r="A14" s="38"/>
@@ -31749,49 +31894,67 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="25">
+        <v>11</v>
+      </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="20"/>
+      <c r="H14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" s="22" customFormat="1">
+    <row r="15" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="38"/>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" s="22" customFormat="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="38"/>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" s="22" customFormat="1" ht="15.75" customHeight="1"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
@@ -31803,23 +31966,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E45C2DA-76DD-48F4-A7FC-6FC10F1B7AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AE6268-9AAA-4519-84ED-837DC6640903}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1">
@@ -31827,7 +31990,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -31841,10 +32004,10 @@
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -31858,7 +32021,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -31874,65 +32037,65 @@
     <row r="4" spans="1:11" s="22" customFormat="1">
       <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="38"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="25">
+        <v>55</v>
+      </c>
+      <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
       <c r="A6" s="38"/>
@@ -31941,24 +32104,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="25">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="F6" s="16">
+        <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
       <c r="A7" s="38"/>
@@ -31966,257 +32133,160 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>95</v>
+      <c r="C7" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1000</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="16"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" s="22" customFormat="1">
+      <c r="J7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="38"/>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="22" customFormat="1">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="38"/>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="22" customFormat="1">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="38"/>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="22" customFormat="1">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="38"/>
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" s="22" customFormat="1">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="38"/>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="25">
-        <v>11</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" s="22" customFormat="1">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="38"/>
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" s="22" customFormat="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="38"/>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="25">
-        <v>11</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" s="22" customFormat="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="38"/>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" s="22" customFormat="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="38"/>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" s="22" customFormat="1" ht="15.75" customHeight="1"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
@@ -32229,10 +32299,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FD37FE-4D80-4B83-AE7D-A71836CDE42C}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A14" sqref="A14:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32241,10 +32311,10 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1">
@@ -32252,7 +32322,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -32266,10 +32336,10 @@
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -32283,7 +32353,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -32299,63 +32369,63 @@
     <row r="4" spans="1:11" s="22" customFormat="1">
       <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="38"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32366,23 +32436,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" s="25">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -32394,54 +32464,48 @@
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="25">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" s="22" customFormat="1">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:11" s="38" customFormat="1">
       <c r="B8" s="5">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>79</v>
+      <c r="C8" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="32">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>55</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="25">
+        <v>24</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="33"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
       <c r="A9" s="38"/>
@@ -32450,24 +32514,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
       <c r="A10" s="38"/>
@@ -32476,26 +32544,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="25">
-        <v>11</v>
-      </c>
-      <c r="G10" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="H10" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
       <c r="A11" s="38"/>
@@ -32504,22 +32574,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="20" t="s">
-        <v>76</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F11" s="25">
+        <v>11</v>
+      </c>
+      <c r="G11" s="20"/>
       <c r="H11" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
@@ -32530,26 +32602,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="25">
-        <v>11</v>
-      </c>
-      <c r="G12" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="H12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
       <c r="A13" s="38"/>
@@ -32557,65 +32631,93 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20"/>
+      <c r="C13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="25">
+        <v>11</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" s="22" customFormat="1">
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="38"/>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" s="22" customFormat="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="38"/>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" s="22" customFormat="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="38"/>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" s="22" customFormat="1" ht="15.75" customHeight="1"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
@@ -32630,8 +32732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5100CD1F-4B0D-42D4-BD1C-021A0043228E}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32641,7 +32743,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1">
@@ -32649,7 +32751,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -32663,10 +32765,10 @@
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -32680,7 +32782,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -32696,63 +32798,63 @@
     <row r="4" spans="1:11" s="22" customFormat="1">
       <c r="A4" s="38"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="38"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32763,20 +32865,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="25">
         <v>1000</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="20"/>
@@ -32789,23 +32891,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="25">
         <v>11</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -32817,23 +32919,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="25">
         <v>11</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -32845,17 +32947,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="32"/>
@@ -32869,22 +32971,26 @@
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="32"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="15" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
       <c r="A11" s="38"/>
@@ -32893,13 +32999,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>37</v>
+        <v>84</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="32">
         <v>1</v>
@@ -32908,12 +33014,12 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
@@ -32923,24 +33029,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="32" t="s">
-        <v>76</v>
+      <c r="G12" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" s="32"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
       <c r="A13" s="38"/>
@@ -32949,23 +33059,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="25">
         <v>11</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -32977,24 +33087,28 @@
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1">
       <c r="A15" s="38"/>
@@ -33003,42 +33117,39 @@
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>108</v>
-      </c>
       <c r="E15" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="25">
         <v>11</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" s="22" customFormat="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="38"/>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="478" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D70E905-230B-4F8B-8737-E95BB3B1A10B}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FBF2ADE-6A7B-48D2-A963-900F5069E2CF}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="147">
   <si>
     <t>改定履歴</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>設計書修正</t>
+  </si>
+  <si>
+    <t>users 携帯電話番号　物理名改訂、削除フラグ　物理名改訂、chat_rooms チャットツーム概要に改訂、</t>
+  </si>
+  <si>
+    <t>users 作成日時 chat_rooms 作成日時　posts 投稿日時　tasks 作成日時　ON＿UPDATE削除,</t>
+  </si>
+  <si>
+    <t>CURRENT_STAMP→CURRENT_TIMESTAMPに改訂,chat_rooms論理名改訂、users_chat_rooms キー改訂</t>
+  </si>
+  <si>
+    <t>posts ファイルパスに物理名変更　データ型変更,tasks 担当者 期限 物理名改訂,フラグ　NN制約追加</t>
+  </si>
+  <si>
+    <t>yuina koizumi</t>
   </si>
   <si>
     <t>table_names</t>
@@ -662,7 +677,7 @@
     <t>携帯電話番号</t>
   </si>
   <si>
-    <t>tel</t>
+    <t>mobile_tel</t>
   </si>
   <si>
     <t>勤務先電話番号</t>
@@ -683,9 +698,6 @@
     <t>CURRENT＿TIMESTAMP</t>
   </si>
   <si>
-    <t>ON_UPDATE</t>
-  </si>
-  <si>
     <t>作成と同時に更新</t>
   </si>
   <si>
@@ -695,13 +707,16 @@
     <t>updated_at</t>
   </si>
   <si>
+    <t>ON_UPDATE</t>
+  </si>
+  <si>
     <t>情報変更と同時に更新</t>
   </si>
   <si>
     <t>削除フラグ</t>
   </si>
   <si>
-    <t>delete_flag</t>
+    <t>is_delete</t>
   </si>
   <si>
     <t>1.削除済み</t>
@@ -730,13 +745,10 @@
     <t>チャットルーム名</t>
   </si>
   <si>
-    <t>chat_name</t>
+    <t>チャットルーム概要</t>
   </si>
   <si>
-    <t>チャット概要</t>
-  </si>
-  <si>
-    <t>chat_info</t>
+    <t>info</t>
   </si>
   <si>
     <r>
@@ -785,7 +797,7 @@
     <t>ファイル添付許可フラグ</t>
   </si>
   <si>
-    <t>is_attachble</t>
+    <t>is_attachment</t>
   </si>
   <si>
     <r>
@@ -802,10 +814,7 @@
     </r>
   </si>
   <si>
-    <t>CURRENT_STAMP</t>
-  </si>
-  <si>
-    <t>ON UPDATE</t>
+    <t>CURRENT_TIMESTAMP</t>
   </si>
   <si>
     <r>
@@ -822,10 +831,13 @@
     </r>
   </si>
   <si>
-    <t>creater_id</t>
+    <t>created_by</t>
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>ON UPDATE</t>
   </si>
   <si>
     <t>変更と同時に更新</t>
@@ -845,7 +857,7 @@
     </r>
   </si>
   <si>
-    <t>updater_id</t>
+    <t>updated_by</t>
   </si>
   <si>
     <t>users_chat_rooms</t>
@@ -855,9 +867,6 @@
   </si>
   <si>
     <t>user_id</t>
-  </si>
-  <si>
-    <t>CPK</t>
   </si>
   <si>
     <t>複合主キー</t>
@@ -904,13 +913,10 @@
     <t>post_content</t>
   </si>
   <si>
-    <t>ファイル名</t>
+    <t>ファイルパス</t>
   </si>
   <si>
     <t>file</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t>投稿日時</t>
@@ -936,7 +942,7 @@
     </r>
   </si>
   <si>
-    <t>contributor_id</t>
+    <t>posted_by</t>
   </si>
   <si>
     <t>tasks</t>
@@ -979,13 +985,16 @@
     </r>
   </si>
   <si>
-    <t>responsibler_id</t>
+    <t>charged_by</t>
+  </si>
+  <si>
+    <t>チャットルームID</t>
   </si>
   <si>
     <t>期限</t>
   </si>
   <si>
-    <t>limited_at</t>
+    <t>deadline</t>
   </si>
   <si>
     <t>DATETIME</t>
@@ -1260,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1332,16 +1341,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1562,8 +1572,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1707,7 +1717,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="46">
+      <c r="A5" s="43">
         <v>44092</v>
       </c>
       <c r="B5" s="7"/>
@@ -1739,9 +1749,13 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="8"/>
+      <c r="A6" s="43">
+        <v>44097</v>
+      </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1769,7 +1783,9 @@
     <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="8"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1797,7 +1813,9 @@
     <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="8"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1825,8 +1843,12 @@
     <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="8"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -30470,168 +30492,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="B1" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30641,23 +30663,23 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30666,123 +30688,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+        <v>44</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30804,7 +30826,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -30821,82 +30843,82 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30912,7 +30934,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30928,7 +30950,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30944,7 +30966,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30960,7 +30982,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30976,7 +30998,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30992,7 +31014,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31008,7 +31030,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31024,7 +31046,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31040,7 +31062,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31056,7 +31078,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31072,7 +31094,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31104,8 +31126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10439F6F-30AE-408F-8B63-C3BAE7895DA4}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31123,212 +31145,212 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F6" s="25">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F7" s="25">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F8" s="25">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F9" s="25">
         <v>1000</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -31336,25 +31358,25 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F10" s="25">
         <v>13</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
@@ -31362,25 +31384,25 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" s="25">
         <v>13</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
@@ -31388,79 +31410,77 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>76</v>
-      </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="45" t="s">
-        <v>77</v>
+      <c r="G13" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -31469,52 +31489,52 @@
         <v>0</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31530,8 +31550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E45C2DA-76DD-48F4-A7FC-6FC10F1B7AE7}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31541,7 +31561,7 @@
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
@@ -31550,160 +31570,160 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F6" s="25">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F7" s="25">
         <v>1000</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="20"/>
@@ -31711,19 +31731,19 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
@@ -31732,28 +31752,28 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F9" s="20">
         <v>1</v>
@@ -31762,28 +31782,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F10" s="20">
         <v>1</v>
@@ -31792,168 +31812,166 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F12" s="25">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F14" s="25">
         <v>11</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31969,8 +31987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AE6268-9AAA-4519-84ED-837DC6640903}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31979,7 +31997,7 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
@@ -31989,303 +32007,303 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32301,8 +32319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FD37FE-4D80-4B83-AE7D-A71836CDE42C}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32311,7 +32329,7 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
@@ -32321,186 +32339,187 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F6" s="25">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F7" s="25">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="38" customFormat="1">
+      <c r="A8" s="39"/>
       <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>123</v>
+      <c r="C8" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="F8" s="25">
         <v>24</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="20"/>
@@ -32508,19 +32527,19 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F9" s="32">
         <v>1</v>
@@ -32529,194 +32548,192 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F13" s="25">
         <v>11</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32732,8 +32749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5100CD1F-4B0D-42D4-BD1C-021A0043228E}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32741,7 +32758,7 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
@@ -32750,214 +32767,214 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F6" s="25">
         <v>1000</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F7" s="25">
         <v>11</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F8" s="25">
         <v>11</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="32"/>
@@ -32965,19 +32982,19 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F10" s="32">
         <v>1</v>
@@ -32985,27 +33002,29 @@
       <c r="G10" s="32">
         <v>0</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I10" s="32"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F11" s="32">
         <v>1</v>
@@ -33014,142 +33033,140 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I12" s="32"/>
-      <c r="J12" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F13" s="25">
         <v>11</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F15" s="25">
         <v>11</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="557" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FBF2ADE-6A7B-48D2-A963-900F5069E2CF}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EEA02F67-99F3-449E-94EC-5FB0B7C70455}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="150">
   <si>
     <t>改定履歴</t>
   </si>
@@ -65,7 +65,7 @@
     <t>設計書修正</t>
   </si>
   <si>
-    <t>users 携帯電話番号　物理名改訂、削除フラグ　物理名改訂、chat_rooms チャットツーム概要に改訂、</t>
+    <t>users 携帯電話番号　物理名改訂、削除フラグ　物理名改訂、chat_rooms チャットルーム概要に改訂、</t>
   </si>
   <si>
     <t>users 作成日時 chat_rooms 作成日時　posts 投稿日時　tasks 作成日時　ON＿UPDATE削除,</t>
@@ -74,7 +74,16 @@
     <t>CURRENT_STAMP→CURRENT_TIMESTAMPに改訂,chat_rooms論理名改訂、users_chat_rooms キー改訂</t>
   </si>
   <si>
-    <t>posts ファイルパスに物理名変更　データ型変更,tasks 担当者 期限 物理名改訂,フラグ　NN制約追加</t>
+    <t>posts 添付ファイル名論理名,物理名,データ型の長さ 変更　データ型変更,tasks 担当者 期限 物理名改訂,</t>
+  </si>
+  <si>
+    <t>フラグ　NN制約追加、tasks 担当者ID　物理名変更,　削除フラグ該当カラム物理名is_deletedに全て改定、</t>
+  </si>
+  <si>
+    <t>users_chat_rooms キー修正、chat_rooms infomationにカラム改定、tasks contentにカラム改定、</t>
+  </si>
+  <si>
+    <t>posts　投稿内容　物理名改定</t>
   </si>
   <si>
     <t>yuina koizumi</t>
@@ -716,7 +725,7 @@
     <t>削除フラグ</t>
   </si>
   <si>
-    <t>is_delete</t>
+    <t>is_deleted</t>
   </si>
   <si>
     <t>1.削除済み</t>
@@ -748,7 +757,7 @@
     <t>チャットルーム概要</t>
   </si>
   <si>
-    <t>info</t>
+    <t>infomation</t>
   </si>
   <si>
     <r>
@@ -797,7 +806,7 @@
     <t>ファイル添付許可フラグ</t>
   </si>
   <si>
-    <t>is_attachment</t>
+    <t>is_attacable</t>
   </si>
   <si>
     <r>
@@ -869,6 +878,9 @@
     <t>user_id</t>
   </si>
   <si>
+    <t>PK.FK</t>
+  </si>
+  <si>
     <t>複合主キー</t>
   </si>
   <si>
@@ -910,13 +922,13 @@
     <t>投稿内容</t>
   </si>
   <si>
-    <t>post_content</t>
+    <t>content</t>
   </si>
   <si>
-    <t>ファイルパス</t>
+    <t>添付ファイル名</t>
   </si>
   <si>
-    <t>file</t>
+    <t>file_name</t>
   </si>
   <si>
     <t>投稿日時</t>
@@ -968,9 +980,6 @@
     <t>タスク内容</t>
   </si>
   <si>
-    <t>task_content</t>
-  </si>
-  <si>
     <r>
       <t>担当者</t>
     </r>
@@ -985,7 +994,7 @@
     </r>
   </si>
   <si>
-    <t>charged_by</t>
+    <t>person_in_charge</t>
   </si>
   <si>
     <t>チャットルームID</t>
@@ -1341,11 +1350,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1573,7 +1582,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1717,7 +1726,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>44092</v>
       </c>
       <c r="B5" s="7"/>
@@ -1749,7 +1758,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="43">
+      <c r="A6" s="41">
         <v>44097</v>
       </c>
       <c r="B6" s="7"/>
@@ -1813,7 +1822,7 @@
     <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="8"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="7"/>
@@ -1846,9 +1855,7 @@
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1875,7 +1882,9 @@
     <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="8"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1903,8 +1912,10 @@
     <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="8"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="42"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1931,8 +1942,12 @@
     <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -30475,7 +30490,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="E40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -30493,167 +30508,167 @@
         <v>2</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30663,23 +30678,23 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30688,123 +30703,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="39"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="39"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30846,79 +30861,79 @@
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30934,7 +30949,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30950,7 +30965,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30966,7 +30981,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30982,7 +30997,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30998,7 +31013,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="39"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31014,7 +31029,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="39"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31030,7 +31045,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31046,7 +31061,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="39"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31062,7 +31077,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="39"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31078,7 +31093,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="39"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31094,7 +31109,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31146,211 +31161,211 @@
         <v>2</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" s="25">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7" s="25">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="F9" s="25">
         <v>1000</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -31358,25 +31373,25 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F10" s="25">
         <v>13</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
@@ -31384,25 +31399,25 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25">
         <v>13</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
@@ -31410,77 +31425,77 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="42" t="s">
-        <v>82</v>
-      </c>
       <c r="H13" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -31489,52 +31504,52 @@
         <v>0</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31551,7 +31566,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31571,159 +31586,159 @@
         <v>2</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7" s="25">
         <v>1000</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="20"/>
@@ -31731,19 +31746,19 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" s="20">
         <v>1</v>
@@ -31752,28 +31767,28 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F9" s="20">
         <v>1</v>
@@ -31782,28 +31797,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" s="20">
         <v>1</v>
@@ -31812,166 +31827,166 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" s="25">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14" s="25">
         <v>11</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31987,8 +32002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AE6268-9AAA-4519-84ED-837DC6640903}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32008,302 +32023,302 @@
         <v>2</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>107</v>
+        <v>64</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32319,8 +32334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FD37FE-4D80-4B83-AE7D-A71836CDE42C}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32340,186 +32355,186 @@
         <v>2</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="25">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7" s="25">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="38" customFormat="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>126</v>
+      <c r="C8" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="20"/>
@@ -32527,19 +32542,19 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F9" s="32">
         <v>1</v>
@@ -32548,192 +32563,192 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F13" s="25">
         <v>11</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32749,8 +32764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5100CD1F-4B0D-42D4-BD1C-021A0043228E}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32768,213 +32783,213 @@
         <v>2</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="25">
         <v>11</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25">
         <v>1000</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="25">
         <v>11</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8" s="25">
         <v>11</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="32"/>
@@ -32982,19 +32997,19 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" s="22" customFormat="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" s="32">
         <v>1</v>
@@ -33003,28 +33018,28 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F11" s="32">
         <v>1</v>
@@ -33033,140 +33048,140 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F13" s="25">
         <v>11</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F15" s="25">
         <v>11</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
